--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_12.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_12.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_2</t>
+          <t>model_1_12_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9990841789714222</v>
+        <v>0.9498823004022732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8276575260012102</v>
+        <v>0.7393102053304443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8191493527423002</v>
+        <v>0.7583272135712326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996912210589277</v>
+        <v>0.9511662205226801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003812129480976024</v>
+        <v>0.1756881262786101</v>
       </c>
       <c r="G2" t="n">
-        <v>1.152454917194031</v>
+        <v>1.743233857321449</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6468922789177577</v>
+        <v>0.8644495440624078</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001789407125635707</v>
+        <v>0.0767737431385532</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2511922701129674</v>
+        <v>1.350056046358957</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06174244472788573</v>
+        <v>0.4191516745506453</v>
       </c>
       <c r="L2" t="n">
-        <v>1.058612545828979</v>
+        <v>0.931754621824372</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06271482651254863</v>
+        <v>0.4257528944268631</v>
       </c>
       <c r="N2" t="n">
-        <v>141.1391346541783</v>
+        <v>37.47808973118225</v>
       </c>
       <c r="O2" t="n">
-        <v>282.4743071973948</v>
+        <v>74.44267331940807</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_3</t>
+          <t>model_1_12_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9990932775061684</v>
+        <v>0.9498625409395789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8276524769885069</v>
+        <v>0.7392442513223413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8191359550842585</v>
+        <v>0.7583017441818396</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996904691001313</v>
+        <v>0.9513042695497264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003774256587192789</v>
+        <v>0.1757573932841767</v>
       </c>
       <c r="G3" t="n">
-        <v>1.152488679965227</v>
+        <v>1.743674892077325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.646940201563732</v>
+        <v>0.8645406465914665</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001793764807620035</v>
+        <v>0.07655671016145374</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2504297435285492</v>
+        <v>1.347268949317757</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06143497853171912</v>
+        <v>0.4192342940220619</v>
       </c>
       <c r="L3" t="n">
-        <v>1.058030239605223</v>
+        <v>0.9317277153219797</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06240251803114584</v>
+        <v>0.4258368150723654</v>
       </c>
       <c r="N3" t="n">
-        <v>141.1591036924389</v>
+        <v>37.47730136425073</v>
       </c>
       <c r="O3" t="n">
-        <v>282.4942762356553</v>
+        <v>74.44188495247656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_4</t>
+          <t>model_1_12_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991179512194238</v>
+        <v>0.9498396644928401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8275627098309156</v>
+        <v>0.7391633322821412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8190931245537743</v>
+        <v>0.7582837353326886</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996860723798509</v>
+        <v>0.9514278034418787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003671551597056919</v>
+        <v>0.1758375869102951</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15308895336138</v>
+        <v>1.744215998071741</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6470934038878171</v>
+        <v>0.8646050632006665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001819244273841877</v>
+        <v>0.07636249706948084</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2464225245698162</v>
+        <v>1.344453877490541</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06059332964161088</v>
+        <v>0.4193299260848134</v>
       </c>
       <c r="L4" t="n">
-        <v>1.056451121956876</v>
+        <v>0.9316965644157822</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06154761401235861</v>
+        <v>0.4259339532445082</v>
       </c>
       <c r="N4" t="n">
-        <v>141.2142818555434</v>
+        <v>37.4763890232672</v>
       </c>
       <c r="O4" t="n">
-        <v>282.5494543987597</v>
+        <v>74.44097261149301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_1</t>
+          <t>model_1_12_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999071751114653</v>
+        <v>0.9498156934682959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8275555120424494</v>
+        <v>0.7390791745269097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8190402835475508</v>
+        <v>0.7582680489677006</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996859208340838</v>
+        <v>0.9515500445090396</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003863860766562041</v>
+        <v>0.1759216175904929</v>
       </c>
       <c r="G5" t="n">
-        <v>1.153137085005997</v>
+        <v>1.744778761368484</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6472824131031811</v>
+        <v>0.8646611724186808</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001820122497837672</v>
+        <v>0.07617031648481912</v>
       </c>
       <c r="J5" t="n">
-        <v>0.25261787880255</v>
+        <v>1.341600644641059</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06215996112098238</v>
+        <v>0.4194301104957689</v>
       </c>
       <c r="L5" t="n">
-        <v>1.05940792866221</v>
+        <v>0.9316639230206583</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06313891837147328</v>
+        <v>0.4260357154597886</v>
       </c>
       <c r="N5" t="n">
-        <v>141.1121767935591</v>
+        <v>37.47543347548654</v>
       </c>
       <c r="O5" t="n">
-        <v>282.4473493367755</v>
+        <v>74.44001706371236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_0</t>
+          <t>model_1_12_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9989357354400579</v>
+        <v>0.9497930870395911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8270406487776916</v>
+        <v>0.7390059469015313</v>
       </c>
       <c r="D6" t="n">
-        <v>0.818140215978961</v>
+        <v>0.7582437822385169</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996365403367985</v>
+        <v>0.9516811907165571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00443002964325204</v>
+        <v>0.1760008646655357</v>
       </c>
       <c r="G6" t="n">
-        <v>1.156579978028159</v>
+        <v>1.745268434836571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6505019026071104</v>
+        <v>0.8647479731019051</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002106287782953529</v>
+        <v>0.07596413573540127</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2748191723307585</v>
+        <v>1.338738809849636</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06655846785535287</v>
+        <v>0.4195245697995956</v>
       </c>
       <c r="L6" t="n">
-        <v>1.068112931836296</v>
+        <v>0.9316331397985921</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06760669719001647</v>
+        <v>0.4261316624032259</v>
       </c>
       <c r="N6" t="n">
-        <v>140.8386980069369</v>
+        <v>37.47453274216738</v>
       </c>
       <c r="O6" t="n">
-        <v>282.1738705501533</v>
+        <v>74.4391163303932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_6</t>
+          <t>model_1_12_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9992752689013124</v>
+        <v>0.9497734232209145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8269889575846199</v>
+        <v>0.73895030339859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8186769326780495</v>
+        <v>0.7582094316237038</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996992136749053</v>
+        <v>0.9518261112876197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003016712546312402</v>
+        <v>0.1760697963899866</v>
       </c>
       <c r="G7" t="n">
-        <v>1.156925637274245</v>
+        <v>1.745640523196955</v>
       </c>
       <c r="H7" t="n">
-        <v>0.648582098095093</v>
+        <v>0.8648708432593282</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001743089057657655</v>
+        <v>0.07573629970023588</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2109609748911122</v>
+        <v>1.335882453207579</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05492460783940475</v>
+        <v>0.4196067163308836</v>
       </c>
       <c r="L7" t="n">
-        <v>1.046382790316009</v>
+        <v>0.9316063635348624</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05578961550841059</v>
+        <v>0.4262151026602653</v>
       </c>
       <c r="N7" t="n">
-        <v>141.6071752026634</v>
+        <v>37.47374958431918</v>
       </c>
       <c r="O7" t="n">
-        <v>282.9423477458798</v>
+        <v>74.438333172545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_5</t>
+          <t>model_1_12_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9991675305696921</v>
+        <v>0.9497471737852314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8267782871713394</v>
+        <v>0.7388639951833826</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8194647672707961</v>
+        <v>0.7581928608227033</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996463806335435</v>
+        <v>0.9519437577142958</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003465176227953761</v>
+        <v>0.1761618140645417</v>
       </c>
       <c r="G8" t="n">
-        <v>1.1583343912979</v>
+        <v>1.746217666629459</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6457640594381131</v>
+        <v>0.8649301160536771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002049262206492297</v>
+        <v>0.07555134255296045</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2245120532880486</v>
+        <v>1.332962622825411</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0588657474933748</v>
+        <v>0.4197163495320878</v>
       </c>
       <c r="L8" t="n">
-        <v>1.053278043539706</v>
+        <v>0.9315706196224428</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05979282417223638</v>
+        <v>0.4263264624747954</v>
       </c>
       <c r="N8" t="n">
-        <v>141.3299835763905</v>
+        <v>37.4727046164751</v>
       </c>
       <c r="O8" t="n">
-        <v>282.6651561196069</v>
+        <v>74.43728820470092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_7</t>
+          <t>model_1_12_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993534189994145</v>
+        <v>0.9497197015014732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8255845483424069</v>
+        <v>0.7387743571683552</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8173346297886879</v>
+        <v>0.7581784558675134</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995862540591717</v>
+        <v>0.9520565800521043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002691410676601712</v>
+        <v>0.1762581184459641</v>
       </c>
       <c r="G9" t="n">
-        <v>1.166316928343633</v>
+        <v>1.746817076448694</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6533834376991464</v>
+        <v>0.864981641743144</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002397702162427229</v>
+        <v>0.0753739695690156</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1810530823557274</v>
+        <v>1.330014697808521</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05187880758654454</v>
+        <v>0.4198310594107635</v>
       </c>
       <c r="L9" t="n">
-        <v>1.041381184037469</v>
+        <v>0.9315332105551976</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05269584694625108</v>
+        <v>0.4264429789193925</v>
       </c>
       <c r="N9" t="n">
-        <v>141.8353796154647</v>
+        <v>37.47161155249165</v>
       </c>
       <c r="O9" t="n">
-        <v>283.1705521586811</v>
+        <v>74.43619514071747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_9</t>
+          <t>model_1_12_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994588177767963</v>
+        <v>0.9496101295292215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8253022352287221</v>
+        <v>0.7384529515012148</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8193614964876519</v>
+        <v>0.7580919797134722</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995807295814104</v>
+        <v>0.9525313276693861</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002252685451936278</v>
+        <v>0.1766422241541682</v>
       </c>
       <c r="G10" t="n">
-        <v>1.168204757434776</v>
+        <v>1.748966317624798</v>
       </c>
       <c r="H10" t="n">
-        <v>0.646133453041436</v>
+        <v>0.8652909619319739</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002429717104369468</v>
+        <v>0.07462759785634163</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1474165756757291</v>
+        <v>1.317987283755242</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04746246361006008</v>
+        <v>0.4202882631649</v>
       </c>
       <c r="L10" t="n">
-        <v>1.034635662285034</v>
+        <v>0.9313840061674505</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04820994996686131</v>
+        <v>0.4269073831756205</v>
       </c>
       <c r="N10" t="n">
-        <v>142.1912644805352</v>
+        <v>37.46725784904037</v>
       </c>
       <c r="O10" t="n">
-        <v>283.5264370237516</v>
+        <v>74.4318414372662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_12_8</t>
+          <t>model_1_12_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993925624949299</v>
+        <v>0.9495673927579328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8252856624984175</v>
+        <v>0.7383734500940122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8184802278070497</v>
+        <v>0.7579982227478083</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995560255967554</v>
+        <v>0.9528296612807045</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002528474831511457</v>
+        <v>0.1767920383581557</v>
       </c>
       <c r="G11" t="n">
-        <v>1.168315579358634</v>
+        <v>1.749497943900832</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6492857000130559</v>
+        <v>0.8656263251618124</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002572879348594851</v>
+        <v>0.07415857439983044</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1581143455213941</v>
+        <v>1.311847499764246</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05028394208404366</v>
+        <v>0.4204664533088885</v>
       </c>
       <c r="L11" t="n">
-        <v>1.038876000324485</v>
+        <v>0.9313258114150574</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05107586390636639</v>
+        <v>0.4270883796362521</v>
       </c>
       <c r="N11" t="n">
-        <v>141.960277982829</v>
+        <v>37.46556232340689</v>
       </c>
       <c r="O11" t="n">
-        <v>283.2954505260454</v>
+        <v>74.43014591163271</v>
       </c>
     </row>
   </sheetData>
